--- a/Textbook Companion/Chapter43/Practice Files/CalculatedItem.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/CalculatedItem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch43\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6924" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT 1" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="129" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="14">
   <si>
     <t>Honda</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Sum of Sales</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -124,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,13 +176,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsadmin" refreshedDate="41483.426057407407" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="484">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tsadmin" refreshedDate="41483.426057407407" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="484" xr:uid="{00000000-000A-0000-FFFF-FFFF81000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="H8:I492" sheet="data"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Brand" numFmtId="0">
-      <sharedItems count="10">
+      <sharedItems count="9">
         <s v="Ford"/>
         <s v="Nissan"/>
         <s v="VW"/>
@@ -193,7 +190,6 @@
         <s v="BMW"/>
         <s v="Honda"/>
         <s v="GM "/>
-        <s v="Japan" f="1"/>
         <s v="Germany" f="1"/>
         <s v="US" f="1"/>
       </sharedItems>
@@ -202,8 +198,8 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
     </cacheField>
   </cacheFields>
-  <calculatedItems count="3">
-    <calculatedItem formula="Brand[Honda] +Brand[Nissan]">
+  <calculatedItems count="2">
+    <calculatedItem formula="Brand[BMW]+Brand[VW]">
       <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -212,20 +208,11 @@
         </references>
       </pivotArea>
     </calculatedItem>
-    <calculatedItem formula="Brand[BMW] +Brand[VW]">
+    <calculatedItem formula="Brand[Chrysler]+Brand[Ford]+Brand['GM ']">
       <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
             <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </calculatedItem>
-    <calculatedItem formula="Brand[Chrysler] +Brand[Ford] +Brand['GM ']">
-      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1">
-            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -240,7 +227,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="484">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="484">
   <r>
     <x v="0"/>
     <n v="3"/>
@@ -2181,11 +2168,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
+      <items count="10">
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
@@ -2195,81 +2182,6 @@
         <item x="2"/>
         <item f="1" x="7"/>
         <item f="1" x="8"/>
-        <item f="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="129" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item f="1" x="7"/>
-        <item f="1" x="8"/>
-        <item f="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2306,8 +2218,8 @@
     <i>
       <x v="8"/>
     </i>
-    <i>
-      <x v="9"/>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -2320,6 +2232,149 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C2DD989-D449-4CA8-9CAC-70C6FD057081}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L8:M17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item f="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item f="1" x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item f="1" x="7"/>
+        <item f="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2587,20 +2642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2608,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2616,7 +2671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2679,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2687,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2695,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2703,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2711,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2664,36 +2719,28 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3972</v>
+        <v>3470</v>
       </c>
     </row>
   </sheetData>
@@ -2702,24 +2749,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:I492"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D8:M492"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>1</v>
       </c>
@@ -2732,8 +2789,14 @@
       <c r="I9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>2</v>
       </c>
@@ -2746,8 +2809,14 @@
       <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>3</v>
       </c>
@@ -2760,8 +2829,14 @@
       <c r="I11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>4</v>
       </c>
@@ -2774,8 +2849,14 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>5</v>
       </c>
@@ -2788,8 +2869,14 @@
       <c r="I13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>6</v>
       </c>
@@ -2802,8 +2889,14 @@
       <c r="I14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>7</v>
       </c>
@@ -2816,24 +2909,42 @@
       <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="I17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>2</v>
       </c>
@@ -2849,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>4</v>
       </c>
@@ -2889,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>1</v>
       </c>
@@ -2905,7 +3016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>3</v>
       </c>
@@ -2921,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
         <v>6</v>
       </c>
@@ -2937,7 +3048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>2</v>
       </c>
@@ -2953,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>1</v>
       </c>
@@ -2969,7 +3080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
         <v>3</v>
       </c>
@@ -2977,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>3</v>
       </c>
@@ -3009,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>3</v>
       </c>
@@ -3025,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>2</v>
       </c>
@@ -3033,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
         <v>3</v>
       </c>
@@ -3041,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>2</v>
       </c>
@@ -3057,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>1</v>
       </c>
@@ -3089,7 +3200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>6</v>
       </c>
@@ -3097,7 +3208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>2</v>
       </c>
@@ -3105,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +3224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>4</v>
       </c>
@@ -3185,7 +3296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>2</v>
       </c>
@@ -3193,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>1</v>
       </c>
@@ -3225,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
         <v>6</v>
       </c>
@@ -3241,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
         <v>1</v>
       </c>
@@ -3249,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
         <v>4</v>
       </c>
@@ -3273,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>2</v>
       </c>
@@ -3313,7 +3424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>2</v>
       </c>
@@ -3321,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>2</v>
       </c>
@@ -3337,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>5</v>
       </c>
@@ -3345,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>6</v>
       </c>
@@ -3353,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>5</v>
       </c>
@@ -3361,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>6</v>
       </c>
@@ -3369,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>2</v>
       </c>
@@ -3377,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>1</v>
       </c>
@@ -3409,7 +3520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>1</v>
       </c>
@@ -3417,7 +3528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
         <v>3</v>
       </c>
@@ -3425,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>6</v>
       </c>
@@ -3465,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
         <v>3</v>
       </c>
@@ -3481,7 +3592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
         <v>4</v>
       </c>
@@ -3521,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
         <v>3</v>
       </c>
@@ -3553,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
         <v>1</v>
       </c>
@@ -3561,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
         <v>3</v>
       </c>
@@ -3593,7 +3704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
         <v>5</v>
       </c>
@@ -3617,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
         <v>4</v>
       </c>
@@ -3625,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
         <v>5</v>
       </c>
@@ -3633,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
         <v>3</v>
       </c>
@@ -3641,7 +3752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
         <v>5</v>
       </c>
@@ -3665,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
         <v>3</v>
       </c>
@@ -3673,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
         <v>2</v>
       </c>
@@ -3697,7 +3808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
         <v>5</v>
       </c>
@@ -3705,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
         <v>5</v>
       </c>
@@ -3737,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
         <v>1</v>
       </c>
@@ -3745,7 +3856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +3864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
         <v>0</v>
       </c>
@@ -3769,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
         <v>4</v>
       </c>
@@ -3777,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
         <v>5</v>
       </c>
@@ -3809,7 +3920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
         <v>5</v>
       </c>
@@ -3817,7 +3928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
         <v>6</v>
       </c>
@@ -3849,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
         <v>5</v>
       </c>
@@ -3857,7 +3968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
         <v>1</v>
       </c>
@@ -3865,7 +3976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
         <v>5</v>
       </c>
@@ -3873,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +4000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +4008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" t="s">
         <v>2</v>
       </c>
@@ -3905,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
         <v>3</v>
       </c>
@@ -3913,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
         <v>2</v>
       </c>
@@ -3921,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
         <v>6</v>
       </c>
@@ -3937,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +4056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
         <v>3</v>
       </c>
@@ -3953,7 +4064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
         <v>6</v>
       </c>
@@ -3961,7 +4072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
         <v>5</v>
       </c>
@@ -3969,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
         <v>4</v>
       </c>
@@ -3977,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
         <v>2</v>
       </c>
@@ -3993,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
         <v>3</v>
       </c>
@@ -4009,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" t="s">
         <v>6</v>
       </c>
@@ -4017,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" t="s">
         <v>4</v>
       </c>
@@ -4033,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" t="s">
         <v>1</v>
       </c>
@@ -4049,7 +4160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" t="s">
         <v>4</v>
       </c>
@@ -4057,7 +4168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" t="s">
         <v>4</v>
       </c>
@@ -4073,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" t="s">
         <v>5</v>
       </c>
@@ -4089,7 +4200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" t="s">
         <v>6</v>
       </c>
@@ -4097,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" t="s">
         <v>0</v>
       </c>
@@ -4105,7 +4216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" t="s">
         <v>2</v>
       </c>
@@ -4113,7 +4224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
         <v>1</v>
       </c>
@@ -4121,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
         <v>2</v>
       </c>
@@ -4129,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
         <v>3</v>
       </c>
@@ -4137,7 +4248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" t="s">
         <v>1</v>
       </c>
@@ -4145,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" t="s">
         <v>4</v>
       </c>
@@ -4153,7 +4264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
         <v>6</v>
       </c>
@@ -4161,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
         <v>3</v>
       </c>
@@ -4169,7 +4280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" t="s">
         <v>4</v>
       </c>
@@ -4185,7 +4296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" t="s">
         <v>6</v>
       </c>
@@ -4201,7 +4312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" t="s">
         <v>0</v>
       </c>
@@ -4209,7 +4320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +4328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" t="s">
         <v>1</v>
       </c>
@@ -4225,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" t="s">
         <v>2</v>
       </c>
@@ -4233,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" t="s">
         <v>4</v>
       </c>
@@ -4249,7 +4360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
         <v>4</v>
       </c>
@@ -4257,7 +4368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" t="s">
         <v>3</v>
       </c>
@@ -4265,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" t="s">
         <v>3</v>
       </c>
@@ -4273,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
         <v>3</v>
       </c>
@@ -4281,7 +4392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H200" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
         <v>3</v>
       </c>
@@ -4313,7 +4424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
         <v>4</v>
       </c>
@@ -4321,7 +4432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
         <v>2</v>
       </c>
@@ -4329,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
         <v>1</v>
       </c>
@@ -4337,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
         <v>2</v>
       </c>
@@ -4345,7 +4456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
         <v>4</v>
       </c>
@@ -4361,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
         <v>6</v>
       </c>
@@ -4377,7 +4488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
         <v>1</v>
       </c>
@@ -4393,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
         <v>3</v>
       </c>
@@ -4401,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
         <v>3</v>
       </c>
@@ -4409,7 +4520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
         <v>1</v>
       </c>
@@ -4417,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
         <v>3</v>
       </c>
@@ -4425,7 +4536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
         <v>2</v>
       </c>
@@ -4441,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
         <v>2</v>
       </c>
@@ -4449,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
         <v>6</v>
       </c>
@@ -4457,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
         <v>2</v>
       </c>
@@ -4465,7 +4576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
         <v>0</v>
       </c>
@@ -4481,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
         <v>1</v>
       </c>
@@ -4529,7 +4640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
         <v>6</v>
       </c>
@@ -4537,7 +4648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
         <v>4</v>
       </c>
@@ -4545,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
         <v>3</v>
       </c>
@@ -4553,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
         <v>3</v>
       </c>
@@ -4569,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H235" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H236" t="s">
         <v>3</v>
       </c>
@@ -4585,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H237" t="s">
         <v>2</v>
       </c>
@@ -4593,7 +4704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H238" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H239" t="s">
         <v>3</v>
       </c>
@@ -4609,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H240" t="s">
         <v>6</v>
       </c>
@@ -4617,7 +4728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H241" t="s">
         <v>3</v>
       </c>
@@ -4625,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H242" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H243" t="s">
         <v>5</v>
       </c>
@@ -4641,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H244" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H245" t="s">
         <v>0</v>
       </c>
@@ -4657,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H246" t="s">
         <v>2</v>
       </c>
@@ -4665,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H247" t="s">
         <v>6</v>
       </c>
@@ -4673,7 +4784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H248" t="s">
         <v>3</v>
       </c>
@@ -4681,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H249" t="s">
         <v>6</v>
       </c>
@@ -4689,7 +4800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H250" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H251" t="s">
         <v>3</v>
       </c>
@@ -4705,7 +4816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H252" t="s">
         <v>1</v>
       </c>
@@ -4713,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H253" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H254" t="s">
         <v>2</v>
       </c>
@@ -4729,7 +4840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H255" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H256" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H257" t="s">
         <v>5</v>
       </c>
@@ -4753,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H258" t="s">
         <v>6</v>
       </c>
@@ -4761,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H259" t="s">
         <v>5</v>
       </c>
@@ -4769,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H260" t="s">
         <v>1</v>
       </c>
@@ -4777,7 +4888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H261" t="s">
         <v>6</v>
       </c>
@@ -4785,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H262" t="s">
         <v>4</v>
       </c>
@@ -4793,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H263" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H264" t="s">
         <v>6</v>
       </c>
@@ -4809,7 +4920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H265" t="s">
         <v>3</v>
       </c>
@@ -4817,7 +4928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H266" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +4936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H267" t="s">
         <v>5</v>
       </c>
@@ -4833,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H268" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H269" t="s">
         <v>2</v>
       </c>
@@ -4849,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H270" t="s">
         <v>3</v>
       </c>
@@ -4857,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H271" t="s">
         <v>0</v>
       </c>
@@ -4865,7 +4976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H272" t="s">
         <v>6</v>
       </c>
@@ -4873,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H273" t="s">
         <v>4</v>
       </c>
@@ -4881,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H274" t="s">
         <v>5</v>
       </c>
@@ -4889,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H275" t="s">
         <v>6</v>
       </c>
@@ -4897,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H276" t="s">
         <v>1</v>
       </c>
@@ -4905,7 +5016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H277" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +5024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H278" t="s">
         <v>6</v>
       </c>
@@ -4921,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H279" t="s">
         <v>2</v>
       </c>
@@ -4929,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H280" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +5048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H281" t="s">
         <v>3</v>
       </c>
@@ -4945,7 +5056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H282" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H283" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H284" t="s">
         <v>6</v>
       </c>
@@ -4969,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H285" t="s">
         <v>3</v>
       </c>
@@ -4977,7 +5088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H286" t="s">
         <v>6</v>
       </c>
@@ -4985,7 +5096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H287" t="s">
         <v>4</v>
       </c>
@@ -4993,7 +5104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H288" t="s">
         <v>6</v>
       </c>
@@ -5001,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H289" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H290" t="s">
         <v>1</v>
       </c>
@@ -5017,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H291" t="s">
         <v>3</v>
       </c>
@@ -5025,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H292" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H293" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H294" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H295" t="s">
         <v>5</v>
       </c>
@@ -5057,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H296" t="s">
         <v>4</v>
       </c>
@@ -5065,7 +5176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H297" t="s">
         <v>1</v>
       </c>
@@ -5073,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H298" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +5192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H299" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H300" t="s">
         <v>3</v>
       </c>
@@ -5097,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H301" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H302" t="s">
         <v>6</v>
       </c>
@@ -5113,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H303" t="s">
         <v>4</v>
       </c>
@@ -5121,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H304" t="s">
         <v>4</v>
       </c>
@@ -5129,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H305" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H306" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H307" t="s">
         <v>3</v>
       </c>
@@ -5153,7 +5264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H308" t="s">
         <v>2</v>
       </c>
@@ -5161,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H309" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H310" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H311" t="s">
         <v>2</v>
       </c>
@@ -5185,7 +5296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H312" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H313" t="s">
         <v>0</v>
       </c>
@@ -5201,7 +5312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H314" t="s">
         <v>3</v>
       </c>
@@ -5209,7 +5320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H315" t="s">
         <v>2</v>
       </c>
@@ -5217,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H316" t="s">
         <v>2</v>
       </c>
@@ -5225,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H317" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H318" t="s">
         <v>2</v>
       </c>
@@ -5241,7 +5352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H319" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H320" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H321" t="s">
         <v>3</v>
       </c>
@@ -5265,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H322" t="s">
         <v>3</v>
       </c>
@@ -5273,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H323" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H324" t="s">
         <v>3</v>
       </c>
@@ -5289,7 +5400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H325" t="s">
         <v>0</v>
       </c>
@@ -5297,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H326" t="s">
         <v>6</v>
       </c>
@@ -5305,7 +5416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H327" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H328" t="s">
         <v>1</v>
       </c>
@@ -5321,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H329" t="s">
         <v>1</v>
       </c>
@@ -5329,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H330" t="s">
         <v>0</v>
       </c>
@@ -5337,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H331" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H332" t="s">
         <v>3</v>
       </c>
@@ -5353,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H333" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H334" t="s">
         <v>5</v>
       </c>
@@ -5369,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H335" t="s">
         <v>2</v>
       </c>
@@ -5377,7 +5488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H336" t="s">
         <v>6</v>
       </c>
@@ -5385,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H337" t="s">
         <v>0</v>
       </c>
@@ -5393,7 +5504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H338" t="s">
         <v>2</v>
       </c>
@@ -5401,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H339" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H340" t="s">
         <v>3</v>
       </c>
@@ -5417,7 +5528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H341" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H342" t="s">
         <v>3</v>
       </c>
@@ -5433,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H343" t="s">
         <v>0</v>
       </c>
@@ -5441,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H344" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H345" t="s">
         <v>3</v>
       </c>
@@ -5457,7 +5568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H346" t="s">
         <v>2</v>
       </c>
@@ -5465,7 +5576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H347" t="s">
         <v>5</v>
       </c>
@@ -5473,7 +5584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H348" t="s">
         <v>1</v>
       </c>
@@ -5481,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H349" t="s">
         <v>3</v>
       </c>
@@ -5489,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H350" t="s">
         <v>6</v>
       </c>
@@ -5497,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H351" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H352" t="s">
         <v>4</v>
       </c>
@@ -5513,7 +5624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H353" t="s">
         <v>6</v>
       </c>
@@ -5521,7 +5632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H354" t="s">
         <v>2</v>
       </c>
@@ -5529,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H355" t="s">
         <v>3</v>
       </c>
@@ -5537,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H356" t="s">
         <v>2</v>
       </c>
@@ -5545,7 +5656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H357" t="s">
         <v>2</v>
       </c>
@@ -5553,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H358" t="s">
         <v>6</v>
       </c>
@@ -5561,7 +5672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H359" t="s">
         <v>3</v>
       </c>
@@ -5569,7 +5680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H360" t="s">
         <v>3</v>
       </c>
@@ -5577,7 +5688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H361" t="s">
         <v>4</v>
       </c>
@@ -5585,7 +5696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H362" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H363" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H364" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H365" t="s">
         <v>4</v>
       </c>
@@ -5617,7 +5728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H366" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H367" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H368" t="s">
         <v>6</v>
       </c>
@@ -5641,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H369" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H370" t="s">
         <v>2</v>
       </c>
@@ -5657,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H371" t="s">
         <v>2</v>
       </c>
@@ -5665,7 +5776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H372" t="s">
         <v>2</v>
       </c>
@@ -5673,7 +5784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H373" t="s">
         <v>0</v>
       </c>
@@ -5681,7 +5792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H374" t="s">
         <v>6</v>
       </c>
@@ -5689,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H375" t="s">
         <v>1</v>
       </c>
@@ -5697,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H376" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H377" t="s">
         <v>6</v>
       </c>
@@ -5713,7 +5824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H378" t="s">
         <v>6</v>
       </c>
@@ -5721,7 +5832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H379" t="s">
         <v>5</v>
       </c>
@@ -5729,7 +5840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H380" t="s">
         <v>1</v>
       </c>
@@ -5737,7 +5848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H381" t="s">
         <v>3</v>
       </c>
@@ -5745,7 +5856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H382" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H383" t="s">
         <v>4</v>
       </c>
@@ -5761,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H384" t="s">
         <v>4</v>
       </c>
@@ -5769,7 +5880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H385" t="s">
         <v>6</v>
       </c>
@@ -5777,7 +5888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H386" t="s">
         <v>3</v>
       </c>
@@ -5785,7 +5896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H387" t="s">
         <v>6</v>
       </c>
@@ -5793,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H388" t="s">
         <v>0</v>
       </c>
@@ -5801,7 +5912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H389" t="s">
         <v>6</v>
       </c>
@@ -5809,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H390" t="s">
         <v>2</v>
       </c>
@@ -5817,7 +5928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H391" t="s">
         <v>6</v>
       </c>
@@ -5825,7 +5936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H392" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H393" t="s">
         <v>4</v>
       </c>
@@ -5841,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H394" t="s">
         <v>5</v>
       </c>
@@ -5849,7 +5960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H395" t="s">
         <v>4</v>
       </c>
@@ -5857,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H396" t="s">
         <v>5</v>
       </c>
@@ -5865,7 +5976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H397" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H398" t="s">
         <v>0</v>
       </c>
@@ -5881,7 +5992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H399" t="s">
         <v>6</v>
       </c>
@@ -5889,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H400" t="s">
         <v>6</v>
       </c>
@@ -5897,7 +6008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H401" t="s">
         <v>6</v>
       </c>
@@ -5905,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H402" t="s">
         <v>2</v>
       </c>
@@ -5913,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H403" t="s">
         <v>6</v>
       </c>
@@ -5921,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H404" t="s">
         <v>2</v>
       </c>
@@ -5929,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H405" t="s">
         <v>3</v>
       </c>
@@ -5937,7 +6048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H406" t="s">
         <v>0</v>
       </c>
@@ -5945,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H407" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +6064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H408" t="s">
         <v>5</v>
       </c>
@@ -5961,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H409" t="s">
         <v>2</v>
       </c>
@@ -5969,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H410" t="s">
         <v>3</v>
       </c>
@@ -5977,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H411" t="s">
         <v>0</v>
       </c>
@@ -5985,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H412" t="s">
         <v>2</v>
       </c>
@@ -5993,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H413" t="s">
         <v>2</v>
       </c>
@@ -6001,7 +6112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H414" t="s">
         <v>2</v>
       </c>
@@ -6009,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H415" t="s">
         <v>6</v>
       </c>
@@ -6017,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H416" t="s">
         <v>2</v>
       </c>
@@ -6025,7 +6136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H417" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +6144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H418" t="s">
         <v>3</v>
       </c>
@@ -6041,7 +6152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H419" t="s">
         <v>1</v>
       </c>
@@ -6049,7 +6160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H420" t="s">
         <v>5</v>
       </c>
@@ -6057,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H421" t="s">
         <v>6</v>
       </c>
@@ -6065,7 +6176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H422" t="s">
         <v>2</v>
       </c>
@@ -6073,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H423" t="s">
         <v>4</v>
       </c>
@@ -6081,7 +6192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H424" t="s">
         <v>3</v>
       </c>
@@ -6089,7 +6200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H425" t="s">
         <v>1</v>
       </c>
@@ -6097,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H426" t="s">
         <v>3</v>
       </c>
@@ -6105,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H427" t="s">
         <v>5</v>
       </c>
@@ -6113,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H428" t="s">
         <v>3</v>
       </c>
@@ -6121,7 +6232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H429" t="s">
         <v>3</v>
       </c>
@@ -6129,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H430" t="s">
         <v>2</v>
       </c>
@@ -6137,7 +6248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H431" t="s">
         <v>4</v>
       </c>
@@ -6145,7 +6256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H432" t="s">
         <v>2</v>
       </c>
@@ -6153,7 +6264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H433" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H434" t="s">
         <v>4</v>
       </c>
@@ -6169,7 +6280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H435" t="s">
         <v>5</v>
       </c>
@@ -6177,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H436" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +6296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H437" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H438" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H439" t="s">
         <v>3</v>
       </c>
@@ -6209,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H440" t="s">
         <v>2</v>
       </c>
@@ -6217,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H441" t="s">
         <v>1</v>
       </c>
@@ -6225,7 +6336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H442" t="s">
         <v>5</v>
       </c>
@@ -6233,7 +6344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H443" t="s">
         <v>6</v>
       </c>
@@ -6241,7 +6352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H444" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H445" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H446" t="s">
         <v>6</v>
       </c>
@@ -6265,7 +6376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H447" t="s">
         <v>2</v>
       </c>
@@ -6273,7 +6384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H448" t="s">
         <v>3</v>
       </c>
@@ -6281,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H449" t="s">
         <v>4</v>
       </c>
@@ -6289,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H450" t="s">
         <v>5</v>
       </c>
@@ -6297,7 +6408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H451" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H452" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H453" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H454" t="s">
         <v>5</v>
       </c>
@@ -6329,7 +6440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H455" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H456" t="s">
         <v>2</v>
       </c>
@@ -6345,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H457" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H458" t="s">
         <v>1</v>
       </c>
@@ -6361,7 +6472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H459" t="s">
         <v>6</v>
       </c>
@@ -6369,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H460" t="s">
         <v>5</v>
       </c>
@@ -6377,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H461" t="s">
         <v>3</v>
       </c>
@@ -6385,7 +6496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H462" t="s">
         <v>6</v>
       </c>
@@ -6393,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H463" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H464" t="s">
         <v>6</v>
       </c>
@@ -6409,7 +6520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H465" t="s">
         <v>2</v>
       </c>
@@ -6417,7 +6528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H466" t="s">
         <v>3</v>
       </c>
@@ -6425,7 +6536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H467" t="s">
         <v>0</v>
       </c>
@@ -6433,7 +6544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H468" t="s">
         <v>4</v>
       </c>
@@ -6441,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H469" t="s">
         <v>1</v>
       </c>
@@ -6449,7 +6560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H470" t="s">
         <v>2</v>
       </c>
@@ -6457,7 +6568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H471" t="s">
         <v>2</v>
       </c>
@@ -6465,7 +6576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H472" t="s">
         <v>2</v>
       </c>
@@ -6473,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H473" t="s">
         <v>5</v>
       </c>
@@ -6481,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H474" t="s">
         <v>3</v>
       </c>
@@ -6489,7 +6600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H475" t="s">
         <v>5</v>
       </c>
@@ -6497,7 +6608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H476" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +6616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H477" t="s">
         <v>2</v>
       </c>
@@ -6513,7 +6624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H478" t="s">
         <v>3</v>
       </c>
@@ -6521,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H479" t="s">
         <v>4</v>
       </c>
@@ -6529,7 +6640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H480" t="s">
         <v>0</v>
       </c>
@@ -6537,7 +6648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H481" t="s">
         <v>6</v>
       </c>
@@ -6545,7 +6656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H482" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H483" t="s">
         <v>1</v>
       </c>
@@ -6561,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H484" t="s">
         <v>5</v>
       </c>
@@ -6569,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H485" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H486" t="s">
         <v>6</v>
       </c>
@@ -6585,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H487" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H488" t="s">
         <v>0</v>
       </c>
@@ -6601,7 +6712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H489" t="s">
         <v>6</v>
       </c>
@@ -6609,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H490" t="s">
         <v>6</v>
       </c>
@@ -6617,7 +6728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H491" t="s">
         <v>1</v>
       </c>
@@ -6625,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H492" t="s">
         <v>1</v>
       </c>
@@ -6639,20 +6750,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6660,7 +6771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6668,7 +6779,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -6676,7 +6787,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6684,7 +6795,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +6803,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -6700,7 +6811,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -6708,7 +6819,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -6716,27 +6827,19 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
         <v>802</v>
       </c>
     </row>
